--- a/Data/EC/NIT-9013864971.xlsx
+++ b/Data/EC/NIT-9013864971.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA1FC51-702F-4F81-85D6-9F064496491B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{153BEC9E-22EE-4F1A-9D56-8FCAC3CE0B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{22193981-054C-4201-A3CD-9F2E7343F3A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C4D3B0B-1DD8-4099-820C-E6227D9CB028}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,67 +65,67 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73192670</t>
+  </si>
+  <si>
+    <t>JULIO CESAR CORVIS GONZALEZ</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1143379918</t>
+  </si>
+  <si>
+    <t>SILVANA DEL CARMEN MUÑOZ VILLAMIZAR</t>
+  </si>
+  <si>
+    <t>45759138</t>
+  </si>
+  <si>
+    <t>ROXANA MONROY PAREDES</t>
+  </si>
+  <si>
     <t>1052985551</t>
   </si>
   <si>
     <t>YERICA ANTONIA LEYTON SALINAS</t>
   </si>
   <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>2110</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>73192670</t>
-  </si>
-  <si>
-    <t>JULIO CESAR CORVIS GONZALEZ</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>1143379918</t>
-  </si>
-  <si>
-    <t>SILVANA DEL CARMEN MUÑOZ VILLAMIZAR</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>45759138</t>
-  </si>
-  <si>
-    <t>ROXANA MONROY PAREDES</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82C9870B-8E4B-E9F0-D378-6927D4126FEB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894D8AEB-D23C-D1CA-ED1E-789A2C0E09F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82EE5562-B406-4944-9861-785CB34D289B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769886F1-D418-4256-AECB-0515BB1A616B}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>30561</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,10 +1091,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,10 +1114,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1137,10 +1137,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1160,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1183,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1197,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
@@ -1220,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>28000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1243,13 +1243,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1266,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1289,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1312,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1335,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1358,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1381,16 +1381,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1404,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1427,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F32" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1450,13 +1450,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1473,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1496,19 +1496,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F35" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1519,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>25439</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1542,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
         <v>36341</v>
@@ -1565,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1588,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1611,19 +1611,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G40" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1634,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1680,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1703,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1726,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F45" s="18">
-        <v>25439</v>
+        <v>36341</v>
       </c>
       <c r="G45" s="18">
         <v>908526</v>
@@ -1749,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F46" s="18">
-        <v>28000</v>
+        <v>36341</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1772,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
-        <v>28000</v>
+        <v>36341</v>
       </c>
       <c r="G47" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1795,19 +1795,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="24">
-        <v>30561</v>
+        <v>36341</v>
       </c>
       <c r="G48" s="24">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>

--- a/Data/EC/NIT-9013864971.xlsx
+++ b/Data/EC/NIT-9013864971.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{153BEC9E-22EE-4F1A-9D56-8FCAC3CE0B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61F8A726-0BA5-4B83-B62B-E2DACE8C3477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4C4D3B0B-1DD8-4099-820C-E6227D9CB028}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{409189D0-19F4-4303-802E-A91ED03BD189}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,67 +65,67 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052985551</t>
+  </si>
+  <si>
+    <t>YERICA ANTONIA LEYTON SALINAS</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>73192670</t>
   </si>
   <si>
     <t>JULIO CESAR CORVIS GONZALEZ</t>
   </si>
   <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>1143379918</t>
+  </si>
+  <si>
+    <t>SILVANA DEL CARMEN MUÑOZ VILLAMIZAR</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>45759138</t>
+  </si>
+  <si>
+    <t>ROXANA MONROY PAREDES</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>1143379918</t>
-  </si>
-  <si>
-    <t>SILVANA DEL CARMEN MUÑOZ VILLAMIZAR</t>
-  </si>
-  <si>
-    <t>45759138</t>
-  </si>
-  <si>
-    <t>ROXANA MONROY PAREDES</t>
-  </si>
-  <si>
-    <t>1052985551</t>
-  </si>
-  <si>
-    <t>YERICA ANTONIA LEYTON SALINAS</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2110</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -224,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -237,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -439,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894D8AEB-D23C-D1CA-ED1E-789A2C0E09F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE96210C-5D1C-596D-81DC-BC81D066363B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -890,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769886F1-D418-4256-AECB-0515BB1A616B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A699F32A-68C4-40D7-ABF8-3539B15EB063}">
   <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>30561</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1091,10 +1091,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,10 +1114,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1137,10 +1137,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1160,10 +1160,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1183,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1197,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1091474</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1220,16 +1220,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F23" s="18">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
         <v>1000000</v>
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1266,19 +1266,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1091474</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1289,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1312,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1335,19 +1335,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1358,19 +1358,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="E29" s="16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1091474</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1387,10 +1387,10 @@
         <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>28000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
         <v>1000000</v>
@@ -1404,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1427,19 +1427,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1450,19 +1450,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>1091474</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1479,7 +1479,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1496,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1519,16 +1519,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>25439</v>
+        <v>36341</v>
       </c>
       <c r="G36" s="18">
         <v>908526</v>
@@ -1542,19 +1542,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1091474</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1565,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1588,19 +1588,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1611,13 +1611,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>36341</v>
@@ -1634,19 +1634,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1091474</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1657,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1680,19 +1680,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1703,13 +1703,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>36341</v>
@@ -1726,19 +1726,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>36341</v>
+        <v>30561</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1091474</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1749,19 +1749,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>36341</v>
+        <v>28000</v>
       </c>
       <c r="G46" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1772,19 +1772,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>36341</v>
+        <v>28000</v>
       </c>
       <c r="G47" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1795,16 +1795,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E48" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F48" s="24">
-        <v>36341</v>
+        <v>25439</v>
       </c>
       <c r="G48" s="24">
         <v>908526</v>
